--- a/S2022_Tests/ASS_12_Testing/StudentFolder/Ex.1/ExcelExtract.xlsx
+++ b/S2022_Tests/ASS_12_Testing/StudentFolder/Ex.1/ExcelExtract.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zacha\OneDrive\Desktop\Ualberta Summer 2022 Co-op\SolidWorks\AutoMARK\AutoMARK_V6\S2022_Tests\ASS_12_Testing\StudentFolder\Ex.1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B2A8F8D3-0C1F-41E8-BCC3-AA53AB336C6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6E3ADF78-01AD-469D-B665-C86086383200}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="953" yWindow="2847" windowWidth="13120" windowHeight="7660" xr2:uid="{9A150ECA-5A95-4471-8DE4-B9A2739B0B48}"/>
+    <workbookView xWindow="13" yWindow="4847" windowWidth="24860" windowHeight="7800" xr2:uid="{5BAB03FC-BC81-4223-B69A-6D0512264B66}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1561,7 +1561,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{718573EC-DC25-40C4-A01B-073C5D4B73DC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70503C58-1180-4A80-98B8-C1EF6C853C07}">
   <dimension ref="A1:AS204"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -6680,7 +6680,7 @@
         <v>2</v>
       </c>
       <c r="F75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G75">
         <v>1</v>
@@ -6793,7 +6793,7 @@
         <v>2</v>
       </c>
       <c r="F76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G76">
         <v>1</v>
@@ -6906,7 +6906,7 @@
         <v>2</v>
       </c>
       <c r="F77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G77">
         <v>1</v>
@@ -7245,7 +7245,7 @@
         <v>2</v>
       </c>
       <c r="F80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G80">
         <v>1</v>
@@ -8704,7 +8704,7 @@
         <v>5</v>
       </c>
       <c r="F106">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G106">
         <v>1</v>
@@ -8942,7 +8942,7 @@
         <v>2</v>
       </c>
       <c r="F108">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G108">
         <v>1</v>
@@ -9168,7 +9168,7 @@
         <v>2</v>
       </c>
       <c r="F110">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G110">
         <v>1</v>
@@ -9864,7 +9864,7 @@
         <v>2</v>
       </c>
       <c r="F116">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G116">
         <v>1</v>
@@ -11570,7 +11570,7 @@
         <v>2</v>
       </c>
       <c r="F141">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G141">
         <v>1</v>
@@ -12373,7 +12373,7 @@
         <v>2</v>
       </c>
       <c r="F148">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G148">
         <v>1</v>
@@ -13615,7 +13615,7 @@
         <v>2</v>
       </c>
       <c r="F166">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G166">
         <v>1</v>
